--- a/coeficiente.xlsx
+++ b/coeficiente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://promon-my.sharepoint.com/personal/re11306j_promon_com_br/Documents/Documentos/Instrumentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{941A6C02-041E-4D39-B7DD-1529C4B98A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{941A6C02-041E-4D39-B7DD-1529C4B98A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7E1DC8-8989-4341-ACF6-AA9153F815EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{419654C6-CCCB-4C93-95ED-71D877EFD691}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{419654C6-CCCB-4C93-95ED-71D877EFD691}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/coeficiente.xlsx
+++ b/coeficiente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://promon-my.sharepoint.com/personal/re11306j_promon_com_br/Documents/Documentos/Instrumentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{941A6C02-041E-4D39-B7DD-1529C4B98A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7E1DC8-8989-4341-ACF6-AA9153F815EF}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{941A6C02-041E-4D39-B7DD-1529C4B98A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA3C438F-AB3F-4F92-A399-A96501A2E547}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{419654C6-CCCB-4C93-95ED-71D877EFD691}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{419654C6-CCCB-4C93-95ED-71D877EFD691}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>material</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Aço Carbono</t>
+  </si>
+  <si>
+    <t>Plastico reforçado com fibra de vidro</t>
+  </si>
+  <si>
+    <t>PTFE</t>
   </si>
 </sst>
 </file>
@@ -113,6 +119,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,19 +442,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D9C7A-7D4D-402A-A297-DD4F228937CA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -460,7 +471,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -468,7 +479,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -476,12 +487,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13.3</v>
       </c>
     </row>
   </sheetData>

--- a/coeficiente.xlsx
+++ b/coeficiente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://promon-my.sharepoint.com/personal/re11306j_promon_com_br/Documents/Documentos/Instrumentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{941A6C02-041E-4D39-B7DD-1529C4B98A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA3C438F-AB3F-4F92-A399-A96501A2E547}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{941A6C02-041E-4D39-B7DD-1529C4B98A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9C5687-5F11-46F9-9DD6-E9BCEAE6BD94}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{419654C6-CCCB-4C93-95ED-71D877EFD691}"/>
   </bookViews>
@@ -101,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,10 +120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,7 +442,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -467,7 +464,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>17.3</v>
       </c>
     </row>
@@ -475,7 +472,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>14.4</v>
       </c>
     </row>
@@ -483,7 +480,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>16</v>
       </c>
     </row>
@@ -491,7 +488,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
     </row>
@@ -499,7 +496,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>16.5</v>
       </c>
     </row>
@@ -507,7 +504,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>13.3</v>
       </c>
     </row>
